--- a/utilities/Excel_Sheets/Products/MMTM.xlsx
+++ b/utilities/Excel_Sheets/Products/MMTM.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$O$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$O$45</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -87,9 +87,6 @@
     <t>A249322</t>
   </si>
   <si>
-    <t>blank</t>
-  </si>
-  <si>
     <t>create_MMTM_quote_individual</t>
   </si>
   <si>
@@ -100,6 +97,33 @@
   </si>
   <si>
     <t>create_MMTM_quote_other</t>
+  </si>
+  <si>
+    <t>select_Online_Seller_Suspension_25K_limit_0_Deduct</t>
+  </si>
+  <si>
+    <t>select_Online_Seller_Suspension_50K_limit_0_Deduct</t>
+  </si>
+  <si>
+    <t>select_Online_Seller_Suspension_100K_limit_0_Deduct</t>
+  </si>
+  <si>
+    <t>select_Online_Seller_Suspension_500K_limit_0_Deduct</t>
+  </si>
+  <si>
+    <t>select_Online_Seller_Suspension_250K_limit_0_Deduct</t>
+  </si>
+  <si>
+    <t>select_Online_Seller_Suspension_1MM_limit_0_Deduct</t>
+  </si>
+  <si>
+    <t>create_MMTM_quote_individual_Revenue_Between_500k_1MM</t>
+  </si>
+  <si>
+    <t>create_MMTM_quote_individual_Revenue_Between_1MM_2pt5MM</t>
+  </si>
+  <si>
+    <t>create_MMTM_quote_individual_Revenue_Over_2pt5MM</t>
   </si>
 </sst>
 </file>
@@ -488,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -498,7 +522,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33" style="1" customWidth="1"/>
+    <col min="1" max="1" width="64.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
@@ -566,13 +590,13 @@
     </row>
     <row r="2" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="5">
         <v>43080</v>
@@ -593,7 +617,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="3">
-        <v>499999</v>
+        <v>250000</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
@@ -605,22 +629,38 @@
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O2" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
     <row r="4" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5">
         <v>43080</v>
@@ -641,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="3">
-        <v>499999</v>
+        <v>1000001</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>17</v>
@@ -653,38 +693,38 @@
         <v>90</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="O4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
+    <row r="5" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5">
         <v>43080</v>
@@ -705,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="3">
-        <v>499999</v>
+        <v>2500001</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>17</v>
@@ -716,110 +756,136 @@
       <c r="M6" s="3">
         <v>90</v>
       </c>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="O6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
+    <row r="7" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>500001</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="3">
+        <v>90</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="3">
+        <v>90</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="5">
-        <v>43080</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="3">
-        <v>499999</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="3">
-        <v>90</v>
-      </c>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5">
-        <v>43080</v>
-      </c>
-      <c r="E10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="3">
-        <v>500000</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="3">
-        <v>90</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="O10" s="4">
         <v>0</v>
@@ -843,9 +909,15 @@
       <c r="O11"/>
     </row>
     <row r="12" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D12" s="5">
         <v>43080</v>
       </c>
@@ -865,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="3">
-        <v>500001</v>
+        <v>499999</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>17</v>
@@ -876,7 +948,9 @@
       <c r="M12" s="3">
         <v>90</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="O12" s="4">
         <v>0</v>
       </c>
@@ -899,9 +973,15 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D14" s="5">
         <v>43080</v>
       </c>
@@ -921,7 +1001,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>1000000</v>
+        <v>499999</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>17</v>
@@ -932,32 +1012,24 @@
       <c r="M14" s="3">
         <v>90</v>
       </c>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="O14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-    </row>
+    <row r="15" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D16" s="5">
         <v>43080</v>
       </c>
@@ -977,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="3">
-        <v>1000001</v>
+        <v>499999</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>17</v>
@@ -988,32 +1060,24 @@
       <c r="M16" s="3">
         <v>90</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="O16" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-    </row>
+    <row r="17" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D18" s="5">
         <v>43080</v>
       </c>
@@ -1033,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="3">
-        <v>2500000</v>
+        <v>499999</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>17</v>
@@ -1044,7 +1108,9 @@
       <c r="M18" s="3">
         <v>90</v>
       </c>
-      <c r="N18" s="4"/>
+      <c r="N18" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="O18" s="4">
         <v>0</v>
       </c>
@@ -1067,9 +1133,15 @@
       <c r="O19"/>
     </row>
     <row r="20" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D20" s="5">
         <v>43080</v>
       </c>
@@ -1089,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="3">
-        <v>2500001</v>
+        <v>499999</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>17</v>
@@ -1100,7 +1172,9 @@
       <c r="M20" s="3">
         <v>90</v>
       </c>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="O20" s="4">
         <v>0</v>
       </c>
@@ -1122,42 +1196,698 @@
       <c r="N21"/>
       <c r="O21"/>
     </row>
-    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
+    <row r="22" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="3">
+        <v>90</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="3">
+        <v>90</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="3">
+        <v>90</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="3">
+        <v>90</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="4">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="3">
+        <v>90</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4">
+        <v>5</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>500000</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="3">
+        <v>90</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="3">
+        <v>500001</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="3">
+        <v>90</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="4">
+        <v>6</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="3">
+        <v>90</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="4">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1000001</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="3">
+        <v>90</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+    </row>
+    <row r="40" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="3">
+        <v>2500001</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="3">
+        <v>90</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+    </row>
+    <row r="42" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="4">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2500001</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" s="3">
+        <v>90</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+    </row>
+    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+    </row>
+    <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O45" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/MMTM.xlsx
+++ b/utilities/Excel_Sheets/Products/MMTM.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>create_MMTM_quote_individual_Revenue_Over_2pt5MM</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
   </si>
 </sst>
 </file>
@@ -514,10 +517,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,7 +533,7 @@
     <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="31.28515625" style="1" customWidth="1"/>
@@ -614,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J2" s="3">
         <v>250000</v>

--- a/utilities/Excel_Sheets/Products/MMTM.xlsx
+++ b/utilities/Excel_Sheets/Products/MMTM.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Regression" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression!$A$1:$O$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$O$45</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="33">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -517,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
@@ -1894,4 +1896,1144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6FFB63-8206-430B-BA53-D93BD66AB4D1}">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="64.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="111.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="3">
+        <v>90</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1000001</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="3">
+        <v>90</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2500001</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="3">
+        <v>90</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>500001</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="3">
+        <v>90</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="3">
+        <v>90</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="3">
+        <v>90</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="3">
+        <v>90</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="3">
+        <v>90</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="3">
+        <v>90</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="3">
+        <v>90</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="3">
+        <v>90</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="3">
+        <v>90</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="3">
+        <v>90</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="3">
+        <v>90</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>499999</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="3">
+        <v>90</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>500000</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="3">
+        <v>90</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="3">
+        <v>500001</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="3">
+        <v>90</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4">
+        <v>6</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="3">
+        <v>90</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1000001</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="3">
+        <v>90</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2500001</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="3">
+        <v>90</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="5">
+        <v>43080</v>
+      </c>
+      <c r="E23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2500001</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="3">
+        <v>90</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+    </row>
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:O26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/utilities/Excel_Sheets/Products/MMTM.xlsx
+++ b/utilities/Excel_Sheets/Products/MMTM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="32">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>create_MMTM_quote_individual_Revenue_Over_2pt5MM</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
   </si>
 </sst>
 </file>
@@ -182,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -191,6 +188,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,10 +517,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,10 +617,10 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="3">
-        <v>250000</v>
+        <v>5</v>
+      </c>
+      <c r="J2" s="6">
+        <v>3000000</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
@@ -1902,10 +1900,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6FFB63-8206-430B-BA53-D93BD66AB4D1}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2002,10 +2000,10 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="J2" s="3">
-        <v>250000</v>
+        <v>999999</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
